--- a/src/main/resources/JsonObjects.xlsx
+++ b/src/main/resources/JsonObjects.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t xml:space="preserve">elementName</t>
   </si>
@@ -28,40 +28,25 @@
     <t xml:space="preserve">elementType</t>
   </si>
   <si>
-    <t xml:space="preserve">firstName</t>
+    <t xml:space="preserve">contactName</t>
   </si>
   <si>
     <t xml:space="preserve">string</t>
   </si>
   <si>
-    <t xml:space="preserve">secondName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list_object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">experience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">salary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">float</t>
+    <t xml:space="preserve">code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mobileNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emailID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isTheUserAuthorizedSignatory</t>
   </si>
 </sst>
 </file>
@@ -168,10 +153,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -210,39 +195,31 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
